--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_AI_Gen\03_Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_AI_Gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CB936-AF14-4D4D-8FAE-389D85C96ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290F2B4-F0E3-4DDE-B215-69C88429A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +564,11 @@
       <c r="I1" s="1">
         <v>45476</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J1" s="1">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -585,7 +588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -603,7 +606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -621,7 +624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -639,7 +642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -664,8 +667,11 @@
       <c r="I6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,8 +697,11 @@
       <c r="I7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -712,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -737,8 +746,11 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -764,8 +776,11 @@
       <c r="I10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -783,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -809,8 +824,11 @@
       <c r="I12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -831,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -849,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -869,7 +887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -887,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -909,8 +927,11 @@
       <c r="I17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -931,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -951,8 +972,11 @@
       <c r="I19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -970,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -998,8 +1022,11 @@
       <c r="I21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1025,8 +1052,11 @@
       <c r="I22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1096,11 @@
       <c r="H24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1140,11 @@
       <c r="I26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1162,7 +1198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1209,8 +1245,11 @@
       <c r="I31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1230,7 +1269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
@@ -1249,8 +1288,11 @@
       <c r="I33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +1384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1365,8 +1407,11 @@
       <c r="H39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -1386,8 +1431,11 @@
       <c r="I40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +1453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1431,8 +1479,11 @@
       <c r="I42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1494,8 +1545,11 @@
       <c r="I45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1517,8 +1571,11 @@
       <c r="I46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
@@ -1536,7 +1593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
